--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\1'st_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDENTS\KIMCHEOLMIN\ai\source\개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5E0E7-8A91-4305-99B5-C89DF6F661D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECEBA2E-AC44-4A9B-A609-194949EF4797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1950" windowWidth="21585" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이론적 배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서론 및 이론적 배경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,18 +51,6 @@
   </si>
   <si>
     <t>실증 분석 및 결론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구 배경 및 목적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구 내용 및 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트의 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,6 +100,22 @@
   <si>
     <t>프로젝트명
 (2025.01.13~2025.01.24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구 배경 및 목적 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구 내용 및 방법 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트의 구성 정립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론적 배경 정립</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,6 +478,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,18 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +897,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -914,39 +914,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="B2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
@@ -989,31 +989,31 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="E6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="18"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="19"/>
       <c r="E7" s="10">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="7"/>
@@ -1127,7 +1127,7 @@
     <row r="12" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="32"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1163,7 +1163,7 @@
     <row r="14" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="7"/>
@@ -1183,7 +1183,7 @@
     <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1220,7 +1220,7 @@
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1239,8 +1239,8 @@
     <row r="18" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="34" t="s">
-        <v>9</v>
+      <c r="C18" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
@@ -1259,7 +1259,7 @@
     <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1295,8 +1295,8 @@
     <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="34" t="s">
-        <v>10</v>
+      <c r="C21" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="3"/>
@@ -1315,7 +1315,7 @@
     <row r="22" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1351,8 +1351,8 @@
     <row r="24" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="34" t="s">
-        <v>11</v>
+      <c r="C24" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
@@ -1371,7 +1371,7 @@
     <row r="25" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1407,8 +1407,8 @@
     <row r="27" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="34" t="s">
-        <v>5</v>
+      <c r="C27" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="3"/>
@@ -1427,7 +1427,7 @@
     <row r="28" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1464,7 +1464,7 @@
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1483,8 +1483,8 @@
     <row r="31" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="35" t="s">
-        <v>12</v>
+      <c r="C31" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="3"/>
@@ -1503,7 +1503,7 @@
     <row r="32" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
@@ -1539,8 +1539,8 @@
     <row r="34" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="35" t="s">
-        <v>13</v>
+      <c r="C34" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="3"/>
@@ -1559,7 +1559,7 @@
     <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="35"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1596,7 +1596,7 @@
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1615,8 +1615,8 @@
     <row r="38" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="33" t="s">
-        <v>14</v>
+      <c r="C38" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
@@ -1635,7 +1635,7 @@
     <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1671,8 +1671,8 @@
     <row r="41" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="33" t="s">
-        <v>17</v>
+      <c r="C41" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
@@ -1691,7 +1691,7 @@
     <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1727,8 +1727,8 @@
     <row r="44" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="33" t="s">
-        <v>18</v>
+      <c r="C44" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="3"/>
@@ -1747,7 +1747,7 @@
     <row r="45" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="33"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="7"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1783,8 +1783,8 @@
     <row r="47" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="33" t="s">
-        <v>19</v>
+      <c r="C47" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="3"/>
@@ -1803,7 +1803,7 @@
     <row r="48" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="33"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1839,8 +1839,8 @@
     <row r="50" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="33" t="s">
-        <v>16</v>
+      <c r="C50" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="3"/>
@@ -1859,7 +1859,7 @@
     <row r="51" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="33"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="7"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1895,8 +1895,8 @@
     <row r="53" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="36" t="s">
-        <v>15</v>
+      <c r="C53" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="3"/>
@@ -1915,7 +1915,7 @@
     <row r="54" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1976,7 +1976,7 @@
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="K57" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
@@ -2005,11 +2005,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2017,12 +2018,11 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
